--- a/challenge5_performances/solutions/pandas_openpyxl.xlsx
+++ b/challenge5_performances/solutions/pandas_openpyxl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NOKIA\Nokia-challenges\challenge5_performances\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E348E6D0-CA06-4FE4-92BC-43587D4DA03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96328CF-6362-409E-A50F-8F248C9CCD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1725" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="1725" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18940,7 +18940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
